--- a/data/pca/factorExposure/factorExposure_2015-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01878826446250472</v>
+        <v>-0.01115292210644386</v>
       </c>
       <c r="C2">
-        <v>-0.03880385382643445</v>
+        <v>-0.05445397505881064</v>
       </c>
       <c r="D2">
-        <v>0.1178370640531869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08139490648024583</v>
+      </c>
+      <c r="E2">
+        <v>0.07783463240980538</v>
+      </c>
+      <c r="F2">
+        <v>0.03819441599082601</v>
+      </c>
+      <c r="G2">
+        <v>0.1564030582798581</v>
+      </c>
+      <c r="H2">
+        <v>-0.02267875299958951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04754305973318476</v>
+        <v>-0.02040187477540254</v>
       </c>
       <c r="C4">
-        <v>-0.07978693892745106</v>
+        <v>-0.1166828429594167</v>
       </c>
       <c r="D4">
-        <v>0.0849270725119346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08709185412251151</v>
+      </c>
+      <c r="E4">
+        <v>0.09043047852722691</v>
+      </c>
+      <c r="F4">
+        <v>0.09746546224222119</v>
+      </c>
+      <c r="G4">
+        <v>0.005942042871510607</v>
+      </c>
+      <c r="H4">
+        <v>0.07272671170232489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02979410347985994</v>
+        <v>-0.03415303897143159</v>
       </c>
       <c r="C6">
-        <v>-0.01966575984153173</v>
+        <v>-0.04081278203573706</v>
       </c>
       <c r="D6">
-        <v>0.0919002763518504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07074916230351773</v>
+      </c>
+      <c r="E6">
+        <v>0.1112400092484952</v>
+      </c>
+      <c r="F6">
+        <v>0.04861460193591883</v>
+      </c>
+      <c r="G6">
+        <v>-0.007412613859966648</v>
+      </c>
+      <c r="H6">
+        <v>-0.01614133561234949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002139232023118302</v>
+        <v>-0.00628179948483446</v>
       </c>
       <c r="C7">
-        <v>-0.03334888406081802</v>
+        <v>-0.04604315591224782</v>
       </c>
       <c r="D7">
-        <v>0.07312246678638884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05047249259324299</v>
+      </c>
+      <c r="E7">
+        <v>0.09289886436840065</v>
+      </c>
+      <c r="F7">
+        <v>0.01266049068957458</v>
+      </c>
+      <c r="G7">
+        <v>-0.006296829918016191</v>
+      </c>
+      <c r="H7">
+        <v>0.02673726090158651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-3.881434873070185e-05</v>
+        <v>0.005845870718277696</v>
       </c>
       <c r="C8">
-        <v>-0.03259569756586424</v>
+        <v>-0.04043123197542566</v>
       </c>
       <c r="D8">
-        <v>0.06965623633847751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0419990871878034</v>
+      </c>
+      <c r="E8">
+        <v>0.06799907093535192</v>
+      </c>
+      <c r="F8">
+        <v>0.05177514391807611</v>
+      </c>
+      <c r="G8">
+        <v>0.06013964634456827</v>
+      </c>
+      <c r="H8">
+        <v>0.04949118658265681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03438124865258037</v>
+        <v>-0.01340676655404224</v>
       </c>
       <c r="C9">
-        <v>-0.07169209621129498</v>
+        <v>-0.09660202238343536</v>
       </c>
       <c r="D9">
-        <v>0.09014016222360847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07580214222631317</v>
+      </c>
+      <c r="E9">
+        <v>0.07811001682468392</v>
+      </c>
+      <c r="F9">
+        <v>0.06825606804324361</v>
+      </c>
+      <c r="G9">
+        <v>-0.003391360948040359</v>
+      </c>
+      <c r="H9">
+        <v>0.01936515072365223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1962633659408441</v>
+        <v>-0.2436060480573968</v>
       </c>
       <c r="C10">
-        <v>0.1544939099563131</v>
+        <v>0.09072612907583295</v>
       </c>
       <c r="D10">
-        <v>-0.04602059588791638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007361024622463056</v>
+      </c>
+      <c r="E10">
+        <v>-0.02996227433736138</v>
+      </c>
+      <c r="F10">
+        <v>0.03756155222297134</v>
+      </c>
+      <c r="G10">
+        <v>-0.01394523777232133</v>
+      </c>
+      <c r="H10">
+        <v>0.0003311009175348432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01192608170537832</v>
+        <v>-0.009591787332323742</v>
       </c>
       <c r="C11">
-        <v>-0.04124384274148841</v>
+        <v>-0.06055286193735861</v>
       </c>
       <c r="D11">
-        <v>0.04235937473376599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02729377236975053</v>
+      </c>
+      <c r="E11">
+        <v>0.05392659511081144</v>
+      </c>
+      <c r="F11">
+        <v>-0.001031378939098216</v>
+      </c>
+      <c r="G11">
+        <v>-0.009702139640027464</v>
+      </c>
+      <c r="H11">
+        <v>0.01071141570302247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01102848735231844</v>
+        <v>-0.01026437143399649</v>
       </c>
       <c r="C12">
-        <v>-0.04297524102422091</v>
+        <v>-0.05125864010760894</v>
       </c>
       <c r="D12">
-        <v>0.05045918358597942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03287647897899827</v>
+      </c>
+      <c r="E12">
+        <v>0.04521776758656062</v>
+      </c>
+      <c r="F12">
+        <v>-0.003788341692668106</v>
+      </c>
+      <c r="G12">
+        <v>-0.005834442469153852</v>
+      </c>
+      <c r="H12">
+        <v>-0.02157287787786059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01256156874888636</v>
+        <v>-0.004014702352099169</v>
       </c>
       <c r="C13">
-        <v>-0.03422138188002339</v>
+        <v>-0.06683191540592295</v>
       </c>
       <c r="D13">
-        <v>0.1177789840307048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1164168161774344</v>
+      </c>
+      <c r="E13">
+        <v>0.1046602462875375</v>
+      </c>
+      <c r="F13">
+        <v>0.03145571894774873</v>
+      </c>
+      <c r="G13">
+        <v>0.05244840872571192</v>
+      </c>
+      <c r="H13">
+        <v>-0.07754678466305372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009721899217123778</v>
+        <v>-0.002548283527224573</v>
       </c>
       <c r="C14">
-        <v>-0.01905956577172764</v>
+        <v>-0.03555994841519043</v>
       </c>
       <c r="D14">
-        <v>0.062738239467983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0544101844027924</v>
+      </c>
+      <c r="E14">
+        <v>0.1094043744706305</v>
+      </c>
+      <c r="F14">
+        <v>0.04163926847743497</v>
+      </c>
+      <c r="G14">
+        <v>0.01969236508005178</v>
+      </c>
+      <c r="H14">
+        <v>-0.03633995767930185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002494868347075195</v>
+        <v>0.004334843294042501</v>
       </c>
       <c r="C15">
-        <v>-0.01229856528192916</v>
+        <v>-0.03160547628871249</v>
       </c>
       <c r="D15">
-        <v>0.051574764381757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04888705542541553</v>
+      </c>
+      <c r="E15">
+        <v>0.05846743133345756</v>
+      </c>
+      <c r="F15">
+        <v>0.01351914239266448</v>
+      </c>
+      <c r="G15">
+        <v>0.0199252816139901</v>
+      </c>
+      <c r="H15">
+        <v>0.01242630524243762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01141493598848362</v>
+        <v>-0.009253860617679978</v>
       </c>
       <c r="C16">
-        <v>-0.04068918110670028</v>
+        <v>-0.05352736256875378</v>
       </c>
       <c r="D16">
-        <v>0.04624447376111108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02945988197619846</v>
+      </c>
+      <c r="E16">
+        <v>0.04918531360493538</v>
+      </c>
+      <c r="F16">
+        <v>-0.004021258504140878</v>
+      </c>
+      <c r="G16">
+        <v>-0.0236291462170181</v>
+      </c>
+      <c r="H16">
+        <v>-0.002811923784971135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001106731226095393</v>
+        <v>0.0013682224301579</v>
       </c>
       <c r="C19">
-        <v>-0.01898062343797571</v>
+        <v>-0.01494129538448995</v>
       </c>
       <c r="D19">
-        <v>0.05105307965005598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0274959907036917</v>
+      </c>
+      <c r="E19">
+        <v>0.01045411140630118</v>
+      </c>
+      <c r="F19">
+        <v>0.01156479190488283</v>
+      </c>
+      <c r="G19">
+        <v>0.0271173137024787</v>
+      </c>
+      <c r="H19">
+        <v>-0.009864308339633742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000779526969133866</v>
+        <v>-0.004454403865260624</v>
       </c>
       <c r="C20">
-        <v>-0.03049587955143377</v>
+        <v>-0.04785327946520809</v>
       </c>
       <c r="D20">
-        <v>0.05664662727638129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05726572577945792</v>
+      </c>
+      <c r="E20">
+        <v>0.06682828774024338</v>
+      </c>
+      <c r="F20">
+        <v>0.0254702999128155</v>
+      </c>
+      <c r="G20">
+        <v>-0.02340183335228975</v>
+      </c>
+      <c r="H20">
+        <v>0.02090322591107518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005605231695919763</v>
+        <v>-0.002988975221133248</v>
       </c>
       <c r="C21">
-        <v>-0.03280104353687096</v>
+        <v>-0.04890625038903788</v>
       </c>
       <c r="D21">
-        <v>0.0940299415379756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08572437608697198</v>
+      </c>
+      <c r="E21">
+        <v>0.08980670430939647</v>
+      </c>
+      <c r="F21">
+        <v>0.1051117931593903</v>
+      </c>
+      <c r="G21">
+        <v>0.07637277640480662</v>
+      </c>
+      <c r="H21">
+        <v>-0.08425988032763346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004163555540885648</v>
+        <v>0.008941190257328183</v>
       </c>
       <c r="C22">
-        <v>-0.05690339417608973</v>
+        <v>-0.08559927605904728</v>
       </c>
       <c r="D22">
-        <v>0.2023756649254022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1918787451116261</v>
+      </c>
+      <c r="E22">
+        <v>0.1304217398297835</v>
+      </c>
+      <c r="F22">
+        <v>0.05244458370356889</v>
+      </c>
+      <c r="G22">
+        <v>0.2156761475977945</v>
+      </c>
+      <c r="H22">
+        <v>0.1875057327669314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004573916372618268</v>
+        <v>0.005843581454338775</v>
       </c>
       <c r="C23">
-        <v>-0.05734581441150206</v>
+        <v>-0.08778480520871088</v>
       </c>
       <c r="D23">
-        <v>0.2014742144361055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1953777228795172</v>
+      </c>
+      <c r="E23">
+        <v>0.127919451193123</v>
+      </c>
+      <c r="F23">
+        <v>0.05502588295600561</v>
+      </c>
+      <c r="G23">
+        <v>0.2102895229503224</v>
+      </c>
+      <c r="H23">
+        <v>0.1789030413717098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01786122424656421</v>
+        <v>-0.01054108749490425</v>
       </c>
       <c r="C24">
-        <v>-0.06115576861456096</v>
+        <v>-0.07106117801652564</v>
       </c>
       <c r="D24">
-        <v>0.05812009727845666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02706582522367025</v>
+      </c>
+      <c r="E24">
+        <v>0.06123670342209694</v>
+      </c>
+      <c r="F24">
+        <v>0.0005932984814183812</v>
+      </c>
+      <c r="G24">
+        <v>-0.0009863131815153814</v>
+      </c>
+      <c r="H24">
+        <v>0.002998692095342969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0173402383859812</v>
+        <v>-0.01470928351296468</v>
       </c>
       <c r="C25">
-        <v>-0.05295074316220195</v>
+        <v>-0.06533946398031777</v>
       </c>
       <c r="D25">
-        <v>0.04503299235490547</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03143067060198051</v>
+      </c>
+      <c r="E25">
+        <v>0.04333518151232001</v>
+      </c>
+      <c r="F25">
+        <v>0.001868194753213949</v>
+      </c>
+      <c r="G25">
+        <v>-0.01423681274873341</v>
+      </c>
+      <c r="H25">
+        <v>0.001343050512369862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006181083452313023</v>
+        <v>-0.01697650982922097</v>
       </c>
       <c r="C26">
-        <v>-0.01946739342652739</v>
+        <v>-0.03384754077746434</v>
       </c>
       <c r="D26">
-        <v>0.05142079214170077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03434481871948483</v>
+      </c>
+      <c r="E26">
+        <v>0.07876712235293165</v>
+      </c>
+      <c r="F26">
+        <v>0.05558713868540058</v>
+      </c>
+      <c r="G26">
+        <v>0.02262080151130142</v>
+      </c>
+      <c r="H26">
+        <v>0.001524229759597679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2779696180475031</v>
+        <v>-0.3123062143099465</v>
       </c>
       <c r="C28">
-        <v>0.1725463573079278</v>
+        <v>0.09316923699710786</v>
       </c>
       <c r="D28">
-        <v>-0.006481171947199266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001725882939400203</v>
+      </c>
+      <c r="E28">
+        <v>-0.05082627940896909</v>
+      </c>
+      <c r="F28">
+        <v>0.04965851254517831</v>
+      </c>
+      <c r="G28">
+        <v>0.0538038832879317</v>
+      </c>
+      <c r="H28">
+        <v>0.03809780277793509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001194826654244965</v>
+        <v>-0.001365359056468472</v>
       </c>
       <c r="C29">
-        <v>-0.02155596447604029</v>
+        <v>-0.04173356292762087</v>
       </c>
       <c r="D29">
-        <v>0.0675939954327522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.06277337030654598</v>
+      </c>
+      <c r="E29">
+        <v>0.1227103176250154</v>
+      </c>
+      <c r="F29">
+        <v>0.04785512240975165</v>
+      </c>
+      <c r="G29">
+        <v>0.008865863409510297</v>
+      </c>
+      <c r="H29">
+        <v>-0.05268800156627999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02676526287643145</v>
+        <v>-0.01655054486879645</v>
       </c>
       <c r="C30">
-        <v>-0.07607270737733902</v>
+        <v>-0.1014090353451857</v>
       </c>
       <c r="D30">
-        <v>0.1402723616954702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09026275583855833</v>
+      </c>
+      <c r="E30">
+        <v>0.1283311725093473</v>
+      </c>
+      <c r="F30">
+        <v>0.02330690290192513</v>
+      </c>
+      <c r="G30">
+        <v>0.001886386782784777</v>
+      </c>
+      <c r="H30">
+        <v>0.03204282653897096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03207764886794979</v>
+        <v>-0.01066659853209133</v>
       </c>
       <c r="C31">
-        <v>-0.08671884851493172</v>
+        <v>-0.09638579014754313</v>
       </c>
       <c r="D31">
-        <v>0.04558765871910939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02057397854793152</v>
+      </c>
+      <c r="E31">
+        <v>0.03315544923199814</v>
+      </c>
+      <c r="F31">
+        <v>0.01807709618168679</v>
+      </c>
+      <c r="G31">
+        <v>0.01699352144529948</v>
+      </c>
+      <c r="H31">
+        <v>0.005884982080003856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01797404824952658</v>
+        <v>-0.01249403852694391</v>
       </c>
       <c r="C32">
-        <v>-0.0419535270383589</v>
+        <v>-0.05530065031227682</v>
       </c>
       <c r="D32">
-        <v>0.08248425138201555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07566124932572237</v>
+      </c>
+      <c r="E32">
+        <v>0.030855248220036</v>
+      </c>
+      <c r="F32">
+        <v>0.05782660590769201</v>
+      </c>
+      <c r="G32">
+        <v>0.0434949973884233</v>
+      </c>
+      <c r="H32">
+        <v>-0.01476238164791774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005534372719712907</v>
+        <v>-0.006839300354998041</v>
       </c>
       <c r="C33">
-        <v>-0.04376176492676853</v>
+        <v>-0.06696484308907537</v>
       </c>
       <c r="D33">
-        <v>0.08961719882120024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08016865305496269</v>
+      </c>
+      <c r="E33">
+        <v>0.0938353443763234</v>
+      </c>
+      <c r="F33">
+        <v>0.03716468186793772</v>
+      </c>
+      <c r="G33">
+        <v>0.004710487721706329</v>
+      </c>
+      <c r="H33">
+        <v>-0.003530433964872684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01329408662565756</v>
+        <v>-0.009021897311553584</v>
       </c>
       <c r="C34">
-        <v>-0.06120828484138578</v>
+        <v>-0.06222987950522814</v>
       </c>
       <c r="D34">
-        <v>0.05661899067856459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01297430871019614</v>
+      </c>
+      <c r="E34">
+        <v>0.04440275046706785</v>
+      </c>
+      <c r="F34">
+        <v>-0.03279569061041615</v>
+      </c>
+      <c r="G34">
+        <v>0.001205123666357659</v>
+      </c>
+      <c r="H34">
+        <v>-0.009391111397556055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0005426517886732871</v>
+        <v>-0.004354827541471069</v>
       </c>
       <c r="C35">
-        <v>-0.0005414643396848434</v>
+        <v>-0.01682195005414306</v>
       </c>
       <c r="D35">
-        <v>0.003832041866540767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02760667023201512</v>
+      </c>
+      <c r="E35">
+        <v>0.03336858210119494</v>
+      </c>
+      <c r="F35">
+        <v>0.02685315359565837</v>
+      </c>
+      <c r="G35">
+        <v>-0.003113843850712251</v>
+      </c>
+      <c r="H35">
+        <v>-0.01390118538517209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006075767402284368</v>
+        <v>-0.01099875508105808</v>
       </c>
       <c r="C36">
-        <v>-0.01203602666340767</v>
+        <v>-0.02677134735766057</v>
       </c>
       <c r="D36">
-        <v>0.05029387509540808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04575958729691948</v>
+      </c>
+      <c r="E36">
+        <v>0.07087790720306827</v>
+      </c>
+      <c r="F36">
+        <v>0.0535583100216559</v>
+      </c>
+      <c r="G36">
+        <v>0.007105547603205666</v>
+      </c>
+      <c r="H36">
+        <v>-0.00544229599736785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001873191401610248</v>
+        <v>-0.007504547349201122</v>
       </c>
       <c r="C38">
-        <v>-0.009737238527697253</v>
+        <v>-0.02976661492358066</v>
       </c>
       <c r="D38">
-        <v>0.07863516997755406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07184828073946281</v>
+      </c>
+      <c r="E38">
+        <v>0.07100801125681645</v>
+      </c>
+      <c r="F38">
+        <v>0.01618682396314828</v>
+      </c>
+      <c r="G38">
+        <v>0.01715878891502673</v>
+      </c>
+      <c r="H38">
+        <v>0.03682779339397374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0134346896628016</v>
+        <v>-0.007445711037891821</v>
       </c>
       <c r="C39">
-        <v>-0.06195976513515025</v>
+        <v>-0.08978390426840646</v>
       </c>
       <c r="D39">
-        <v>0.09773803362089768</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05851525468844664</v>
+      </c>
+      <c r="E39">
+        <v>0.108578822611358</v>
+      </c>
+      <c r="F39">
+        <v>0.005477677386111769</v>
+      </c>
+      <c r="G39">
+        <v>-0.003562477082738968</v>
+      </c>
+      <c r="H39">
+        <v>-0.004394454414105035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01500107249407207</v>
+        <v>-0.01301507768119418</v>
       </c>
       <c r="C40">
-        <v>-0.02936630344216294</v>
+        <v>-0.0449230978010418</v>
       </c>
       <c r="D40">
-        <v>0.1100132027170665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06551123177348508</v>
+      </c>
+      <c r="E40">
+        <v>0.08737960770279624</v>
+      </c>
+      <c r="F40">
+        <v>-0.02350413216651277</v>
+      </c>
+      <c r="G40">
+        <v>0.06775408639053151</v>
+      </c>
+      <c r="H40">
+        <v>-0.01251107951757148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007932563358884256</v>
+        <v>-0.01673601415532204</v>
       </c>
       <c r="C41">
-        <v>-0.008324696437842196</v>
+        <v>-0.02604624524357956</v>
       </c>
       <c r="D41">
-        <v>0.02232664433312881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0329243774419079</v>
+      </c>
+      <c r="E41">
+        <v>0.02499350187076881</v>
+      </c>
+      <c r="F41">
+        <v>0.01891327548503862</v>
+      </c>
+      <c r="G41">
+        <v>0.002928084571749371</v>
+      </c>
+      <c r="H41">
+        <v>0.004250126341146425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003727154206569802</v>
+        <v>-0.007987460166115278</v>
       </c>
       <c r="C43">
-        <v>-0.005734904103007628</v>
+        <v>-0.02037195730294938</v>
       </c>
       <c r="D43">
-        <v>0.03804505205896392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03916427094416104</v>
+      </c>
+      <c r="E43">
+        <v>0.0410949135164916</v>
+      </c>
+      <c r="F43">
+        <v>0.02219813732651433</v>
+      </c>
+      <c r="G43">
+        <v>-0.001886943257128158</v>
+      </c>
+      <c r="H43">
+        <v>0.01249762720010575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01848343184058997</v>
+        <v>-0.008156056309125793</v>
       </c>
       <c r="C44">
-        <v>-0.03482636092259237</v>
+        <v>-0.05509241250356687</v>
       </c>
       <c r="D44">
-        <v>0.08617944884146232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0704895438947347</v>
+      </c>
+      <c r="E44">
+        <v>0.09731074470926071</v>
+      </c>
+      <c r="F44">
+        <v>0.03994421656241877</v>
+      </c>
+      <c r="G44">
+        <v>0.03147251273812921</v>
+      </c>
+      <c r="H44">
+        <v>0.02399247978498295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003544109471670881</v>
+        <v>-5.562794833534695e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03274849565724598</v>
+        <v>-0.04390583577883803</v>
       </c>
       <c r="D46">
-        <v>0.06666829610745269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03787279772289011</v>
+      </c>
+      <c r="E46">
+        <v>0.09227907822991833</v>
+      </c>
+      <c r="F46">
+        <v>0.04048738854194687</v>
+      </c>
+      <c r="G46">
+        <v>0.01831970376892454</v>
+      </c>
+      <c r="H46">
+        <v>-0.006084200851636942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0689472758889155</v>
+        <v>-0.03132305902396323</v>
       </c>
       <c r="C47">
-        <v>-0.113133531624139</v>
+        <v>-0.1242444971698886</v>
       </c>
       <c r="D47">
-        <v>0.05257746378741993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01706388873541563</v>
+      </c>
+      <c r="E47">
+        <v>0.005990261442474209</v>
+      </c>
+      <c r="F47">
+        <v>0.001132339109339224</v>
+      </c>
+      <c r="G47">
+        <v>-0.01020449058673295</v>
+      </c>
+      <c r="H47">
+        <v>0.01540446555268443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004417852429190382</v>
+        <v>-0.01200071761770665</v>
       </c>
       <c r="C48">
-        <v>-0.01939595129211261</v>
+        <v>-0.03540661225070767</v>
       </c>
       <c r="D48">
-        <v>0.05241217413701392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05044622812976268</v>
+      </c>
+      <c r="E48">
+        <v>0.07454060710898897</v>
+      </c>
+      <c r="F48">
+        <v>0.06574672837166846</v>
+      </c>
+      <c r="G48">
+        <v>0.0147589707415815</v>
+      </c>
+      <c r="H48">
+        <v>0.007014587879208543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003163553028402301</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.003899708108286459</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003716303301706166</v>
+      </c>
+      <c r="E49">
+        <v>-0.001271223150292954</v>
+      </c>
+      <c r="F49">
+        <v>-0.003894774746186012</v>
+      </c>
+      <c r="G49">
+        <v>-0.008627378955743545</v>
+      </c>
+      <c r="H49">
+        <v>-0.008543641384968582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03260521759294829</v>
+        <v>-0.01501546175323284</v>
       </c>
       <c r="C50">
-        <v>-0.05926589510138029</v>
+        <v>-0.07710351939056566</v>
       </c>
       <c r="D50">
-        <v>0.06447038882097078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03683276930772419</v>
+      </c>
+      <c r="E50">
+        <v>0.04206611233516029</v>
+      </c>
+      <c r="F50">
+        <v>0.01020124749465019</v>
+      </c>
+      <c r="G50">
+        <v>0.009431403441785551</v>
+      </c>
+      <c r="H50">
+        <v>0.01988890260602429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006804356142685849</v>
+        <v>0.004123974829936356</v>
       </c>
       <c r="C51">
-        <v>-0.007328068225904634</v>
+        <v>-0.02008773335244805</v>
       </c>
       <c r="D51">
-        <v>0.05184771945518942</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.02209773985704443</v>
+      </c>
+      <c r="E51">
+        <v>0.06303837343315623</v>
+      </c>
+      <c r="F51">
+        <v>0.03417358264344163</v>
+      </c>
+      <c r="G51">
+        <v>0.03993669204152431</v>
+      </c>
+      <c r="H51">
+        <v>0.0004641493058952173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1037002638371455</v>
+        <v>-0.06032453550144335</v>
       </c>
       <c r="C53">
-        <v>-0.1379109985570876</v>
+        <v>-0.1638180925414925</v>
       </c>
       <c r="D53">
-        <v>-0.005680861533022218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0198439859727174</v>
+      </c>
+      <c r="E53">
+        <v>-0.03299689331189428</v>
+      </c>
+      <c r="F53">
+        <v>0.0327022793135732</v>
+      </c>
+      <c r="G53">
+        <v>0.004511783857298926</v>
+      </c>
+      <c r="H53">
+        <v>0.007445942460576051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005406275807111175</v>
+        <v>-0.01009528636478677</v>
       </c>
       <c r="C54">
-        <v>-0.02611228663306209</v>
+        <v>-0.04311137286344681</v>
       </c>
       <c r="D54">
-        <v>0.08416927465514211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0619557933044257</v>
+      </c>
+      <c r="E54">
+        <v>0.06584879282800617</v>
+      </c>
+      <c r="F54">
+        <v>0.016005507663248</v>
+      </c>
+      <c r="G54">
+        <v>0.01715248167959174</v>
+      </c>
+      <c r="H54">
+        <v>0.02249284900016125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0860041656877874</v>
+        <v>-0.0421076031769802</v>
       </c>
       <c r="C55">
-        <v>-0.112893609930053</v>
+        <v>-0.1278903597253865</v>
       </c>
       <c r="D55">
-        <v>-7.597902533232957e-06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0484260075950795</v>
+      </c>
+      <c r="E55">
+        <v>-0.01686630250546406</v>
+      </c>
+      <c r="F55">
+        <v>-0.003467111276769321</v>
+      </c>
+      <c r="G55">
+        <v>0.02134773261095405</v>
+      </c>
+      <c r="H55">
+        <v>0.004149795055419576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1269498163916863</v>
+        <v>-0.06134005191149838</v>
       </c>
       <c r="C56">
-        <v>-0.1600586273163438</v>
+        <v>-0.1925753593658489</v>
       </c>
       <c r="D56">
-        <v>0.02182796493648107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04188947019684108</v>
+      </c>
+      <c r="E56">
+        <v>-0.04521531766375637</v>
+      </c>
+      <c r="F56">
+        <v>-0.006791144496669036</v>
+      </c>
+      <c r="G56">
+        <v>0.06873348482266731</v>
+      </c>
+      <c r="H56">
+        <v>0.02262482063794021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009167865401721969</v>
+        <v>-0.007778002490676407</v>
       </c>
       <c r="C58">
-        <v>-0.03091125501798417</v>
+        <v>-0.07829540958041067</v>
       </c>
       <c r="D58">
-        <v>0.1861469569796003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2092581094146912</v>
+      </c>
+      <c r="E58">
+        <v>0.1396161406673943</v>
+      </c>
+      <c r="F58">
+        <v>0.1310451890320224</v>
+      </c>
+      <c r="G58">
+        <v>0.1525525388973939</v>
+      </c>
+      <c r="H58">
+        <v>0.120490339434162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2030179397061633</v>
+        <v>-0.2602147183414534</v>
       </c>
       <c r="C59">
-        <v>0.1232373565036166</v>
+        <v>0.05648205097347724</v>
       </c>
       <c r="D59">
-        <v>0.04856134453924123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.047009493969597</v>
+      </c>
+      <c r="E59">
+        <v>-0.001252595228194337</v>
+      </c>
+      <c r="F59">
+        <v>0.02768554916824971</v>
+      </c>
+      <c r="G59">
+        <v>0.03860089940752014</v>
+      </c>
+      <c r="H59">
+        <v>-0.02638603382919822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1757646793643641</v>
+        <v>-0.1533974481000776</v>
       </c>
       <c r="C60">
-        <v>-0.1091840420247643</v>
+        <v>-0.1670376403458869</v>
       </c>
       <c r="D60">
-        <v>0.1179954970848648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01642784416545973</v>
+      </c>
+      <c r="E60">
+        <v>0.1095554776656265</v>
+      </c>
+      <c r="F60">
+        <v>-0.1930260610660212</v>
+      </c>
+      <c r="G60">
+        <v>-0.2150059086550583</v>
+      </c>
+      <c r="H60">
+        <v>-0.1807828551597542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02090075639906145</v>
+        <v>-0.01377828015027037</v>
       </c>
       <c r="C61">
-        <v>-0.05821043169540963</v>
+        <v>-0.08132999426360506</v>
       </c>
       <c r="D61">
-        <v>0.06973811176827271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03776113197272248</v>
+      </c>
+      <c r="E61">
+        <v>0.07785126047331364</v>
+      </c>
+      <c r="F61">
+        <v>-0.001933205315434666</v>
+      </c>
+      <c r="G61">
+        <v>-0.002865474964021565</v>
+      </c>
+      <c r="H61">
+        <v>-0.003426867869688319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1.473181340641989e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0001149895951519016</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0001129436815979342</v>
+      </c>
+      <c r="E62">
+        <v>-3.955851537585842e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.0001117364630949566</v>
+      </c>
+      <c r="G62">
+        <v>-8.237170158161441e-05</v>
+      </c>
+      <c r="H62">
+        <v>-7.63310471955e-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008792038046321319</v>
+        <v>-0.01596726058847062</v>
       </c>
       <c r="C63">
-        <v>-0.0295496731704042</v>
+        <v>-0.04731996690073816</v>
       </c>
       <c r="D63">
-        <v>0.06769683420891745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03000791640607053</v>
+      </c>
+      <c r="E63">
+        <v>0.09385713559296784</v>
+      </c>
+      <c r="F63">
+        <v>0.02634266663581265</v>
+      </c>
+      <c r="G63">
+        <v>-0.001116797632427691</v>
+      </c>
+      <c r="H63">
+        <v>-0.001453160020399933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04486853529743061</v>
+        <v>-0.01543883557236896</v>
       </c>
       <c r="C64">
-        <v>-0.09652583165157423</v>
+        <v>-0.1033558440184181</v>
       </c>
       <c r="D64">
-        <v>0.01750019538531447</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003227204539970229</v>
+      </c>
+      <c r="E64">
+        <v>0.03283210394903587</v>
+      </c>
+      <c r="F64">
+        <v>0.02647093637164815</v>
+      </c>
+      <c r="G64">
+        <v>-0.0365449816592136</v>
+      </c>
+      <c r="H64">
+        <v>0.02459327594465235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02602446167627574</v>
+        <v>-0.02680196017240826</v>
       </c>
       <c r="C65">
-        <v>-0.01830767785478555</v>
+        <v>-0.04783877519033423</v>
       </c>
       <c r="D65">
-        <v>0.09112745030394592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0837360914102529</v>
+      </c>
+      <c r="E65">
+        <v>0.09102989118395183</v>
+      </c>
+      <c r="F65">
+        <v>-0.004707181376190405</v>
+      </c>
+      <c r="G65">
+        <v>-0.06869193272261867</v>
+      </c>
+      <c r="H65">
+        <v>0.001389114296741942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02147494842119207</v>
+        <v>-0.008447636505514011</v>
       </c>
       <c r="C66">
-        <v>-0.07514095925994056</v>
+        <v>-0.1124213151466437</v>
       </c>
       <c r="D66">
-        <v>0.1188598234741121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08343601502037687</v>
+      </c>
+      <c r="E66">
+        <v>0.1089017829166667</v>
+      </c>
+      <c r="F66">
+        <v>0.002960137343537346</v>
+      </c>
+      <c r="G66">
+        <v>0.01935845379089381</v>
+      </c>
+      <c r="H66">
+        <v>0.01366841416544115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01590623199828155</v>
+        <v>-0.01676392236615062</v>
       </c>
       <c r="C67">
-        <v>-0.0180261589381345</v>
+        <v>-0.03549106090693529</v>
       </c>
       <c r="D67">
-        <v>0.04543528776462175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03638435716640034</v>
+      </c>
+      <c r="E67">
+        <v>0.05268060895064026</v>
+      </c>
+      <c r="F67">
+        <v>-0.01402170475682575</v>
+      </c>
+      <c r="G67">
+        <v>-0.002566696549215354</v>
+      </c>
+      <c r="H67">
+        <v>0.02371410205756404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2173740581183463</v>
+        <v>-0.2800277783900187</v>
       </c>
       <c r="C68">
-        <v>0.1368764049614103</v>
+        <v>0.06867397975383814</v>
       </c>
       <c r="D68">
-        <v>0.02923261849367079</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03803296055890467</v>
+      </c>
+      <c r="E68">
+        <v>0.01853375835096334</v>
+      </c>
+      <c r="F68">
+        <v>0.02776151571924372</v>
+      </c>
+      <c r="G68">
+        <v>0.04051594733659466</v>
+      </c>
+      <c r="H68">
+        <v>0.01335208386087918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05002267932428562</v>
+        <v>-0.01519123289079787</v>
       </c>
       <c r="C69">
-        <v>-0.1185182725437167</v>
+        <v>-0.1105625498440249</v>
       </c>
       <c r="D69">
-        <v>0.06531508059605325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01300842013673297</v>
+      </c>
+      <c r="E69">
+        <v>0.01588669055881073</v>
+      </c>
+      <c r="F69">
+        <v>-0.009899185671829916</v>
+      </c>
+      <c r="G69">
+        <v>-0.006016314993268513</v>
+      </c>
+      <c r="H69">
+        <v>-0.005799115277743759</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2307913217321389</v>
+        <v>-0.2699986468912357</v>
       </c>
       <c r="C71">
-        <v>0.1571177844715042</v>
+        <v>0.08394085152029179</v>
       </c>
       <c r="D71">
-        <v>0.0170834333907212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01521631384040459</v>
+      </c>
+      <c r="E71">
+        <v>-0.003498717223381694</v>
+      </c>
+      <c r="F71">
+        <v>0.01549355512386867</v>
+      </c>
+      <c r="G71">
+        <v>0.0412651410752133</v>
+      </c>
+      <c r="H71">
+        <v>0.02792115109377742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09788866497224893</v>
+        <v>-0.06563429817882681</v>
       </c>
       <c r="C72">
-        <v>-0.07943508193437643</v>
+        <v>-0.1241346478858767</v>
       </c>
       <c r="D72">
-        <v>0.0916587500982361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03076751631251588</v>
+      </c>
+      <c r="E72">
+        <v>0.08664436066578875</v>
+      </c>
+      <c r="F72">
+        <v>-0.01229755372002256</v>
+      </c>
+      <c r="G72">
+        <v>-0.03689755449372499</v>
+      </c>
+      <c r="H72">
+        <v>-0.008168078438666175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1735241403605718</v>
+        <v>-0.1594047446539555</v>
       </c>
       <c r="C73">
-        <v>-0.08787851229355541</v>
+        <v>-0.1702647138248933</v>
       </c>
       <c r="D73">
-        <v>0.1711547555035403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.003247644661409985</v>
+      </c>
+      <c r="E73">
+        <v>0.2481331988516036</v>
+      </c>
+      <c r="F73">
+        <v>-0.3152550900228262</v>
+      </c>
+      <c r="G73">
+        <v>-0.3786617539884575</v>
+      </c>
+      <c r="H73">
+        <v>-0.2161067344036115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09774781686897502</v>
+        <v>-0.05118997928363035</v>
       </c>
       <c r="C74">
-        <v>-0.1224227605045334</v>
+        <v>-0.1405817809273065</v>
       </c>
       <c r="D74">
-        <v>-0.05442784598055261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0449896700201174</v>
+      </c>
+      <c r="E74">
+        <v>-0.04424329008490361</v>
+      </c>
+      <c r="F74">
+        <v>0.0309198814847337</v>
+      </c>
+      <c r="G74">
+        <v>0.003550023421194169</v>
+      </c>
+      <c r="H74">
+        <v>0.006957908347616974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2099755609187848</v>
+        <v>-0.09859028716410981</v>
       </c>
       <c r="C75">
-        <v>-0.2131734545515805</v>
+        <v>-0.2575619446956826</v>
       </c>
       <c r="D75">
-        <v>-0.03263855400026865</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09335119620557626</v>
+      </c>
+      <c r="E75">
+        <v>-0.1345189562298169</v>
+      </c>
+      <c r="F75">
+        <v>-0.0611482738078168</v>
+      </c>
+      <c r="G75">
+        <v>0.0997797802723908</v>
+      </c>
+      <c r="H75">
+        <v>0.116814964017336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1283901743939669</v>
+        <v>-0.06178279741020229</v>
       </c>
       <c r="C76">
-        <v>-0.1458480703015461</v>
+        <v>-0.1773697107712194</v>
       </c>
       <c r="D76">
-        <v>0.01002327805964845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04094840567378071</v>
+      </c>
+      <c r="E76">
+        <v>-0.04894517722042313</v>
+      </c>
+      <c r="F76">
+        <v>-0.01594974257490497</v>
+      </c>
+      <c r="G76">
+        <v>0.03796080888907159</v>
+      </c>
+      <c r="H76">
+        <v>0.01330847185718535</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0069646621564873</v>
+        <v>0.002262089590371558</v>
       </c>
       <c r="C77">
-        <v>-0.08183787365589303</v>
+        <v>-0.1282867387892255</v>
       </c>
       <c r="D77">
-        <v>0.2417000343342077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7019923058582582</v>
+      </c>
+      <c r="E77">
+        <v>-0.618406894611526</v>
+      </c>
+      <c r="F77">
+        <v>-0.1410882131497959</v>
+      </c>
+      <c r="G77">
+        <v>-0.1736743615611064</v>
+      </c>
+      <c r="H77">
+        <v>-0.03354748498635243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03130905611350574</v>
+        <v>-0.02161584056242955</v>
       </c>
       <c r="C78">
-        <v>-0.08345113560316583</v>
+        <v>-0.09986452819908789</v>
       </c>
       <c r="D78">
-        <v>0.1436693344865815</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05426160330026981</v>
+      </c>
+      <c r="E78">
+        <v>0.1040911856773766</v>
+      </c>
+      <c r="F78">
+        <v>0.04286046445608549</v>
+      </c>
+      <c r="G78">
+        <v>0.1066607010207931</v>
+      </c>
+      <c r="H78">
+        <v>-0.02450875070059855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1096873439749948</v>
+        <v>-0.05250126522958384</v>
       </c>
       <c r="C79">
-        <v>-0.2223437901242849</v>
+        <v>-0.2205795145930249</v>
       </c>
       <c r="D79">
-        <v>-0.629954917904113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1503264039916209</v>
+      </c>
+      <c r="E79">
+        <v>-0.1617810238568413</v>
+      </c>
+      <c r="F79">
+        <v>0.7680467654173534</v>
+      </c>
+      <c r="G79">
+        <v>-0.4302010534044063</v>
+      </c>
+      <c r="H79">
+        <v>-0.07716674930942274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.007732590871256289</v>
+        <v>-0.009848607616104276</v>
       </c>
       <c r="C80">
-        <v>-0.04280296795600287</v>
+        <v>-0.04413687659454735</v>
       </c>
       <c r="D80">
-        <v>0.02703242855422823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.003110035944670294</v>
+      </c>
+      <c r="E80">
+        <v>0.064586654563293</v>
+      </c>
+      <c r="F80">
+        <v>-0.004959524092210891</v>
+      </c>
+      <c r="G80">
+        <v>0.009974030024774788</v>
+      </c>
+      <c r="H80">
+        <v>-0.07870590737242204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09860174687724824</v>
+        <v>-0.03310524727247575</v>
       </c>
       <c r="C81">
-        <v>-0.1409405872231967</v>
+        <v>-0.1584526948299249</v>
       </c>
       <c r="D81">
-        <v>-0.06962200295289375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06184553353612805</v>
+      </c>
+      <c r="E81">
+        <v>-0.0706371849650704</v>
+      </c>
+      <c r="F81">
+        <v>0.04717435405287882</v>
+      </c>
+      <c r="G81">
+        <v>0.07201493711192151</v>
+      </c>
+      <c r="H81">
+        <v>0.008335308911411141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2039501570213198</v>
+        <v>-0.07965088437875673</v>
       </c>
       <c r="C82">
-        <v>-0.3061466767061304</v>
+        <v>-0.2898284040808513</v>
       </c>
       <c r="D82">
-        <v>-0.06343476392533715</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1831226385209163</v>
+      </c>
+      <c r="E82">
+        <v>-0.1581887395997529</v>
+      </c>
+      <c r="F82">
+        <v>-0.1253114461980718</v>
+      </c>
+      <c r="G82">
+        <v>0.1688303145694575</v>
+      </c>
+      <c r="H82">
+        <v>0.03484216976778865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01015452679747468</v>
+        <v>0.006432838580770886</v>
       </c>
       <c r="C83">
-        <v>-0.04599984846276899</v>
+        <v>-0.01589159427538629</v>
       </c>
       <c r="D83">
-        <v>0.007079881227186483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0310438713382419</v>
+      </c>
+      <c r="E83">
+        <v>-0.09553585136017122</v>
+      </c>
+      <c r="F83">
+        <v>0.1204372275546877</v>
+      </c>
+      <c r="G83">
+        <v>0.4241256910405759</v>
+      </c>
+      <c r="H83">
+        <v>-0.8265476733082909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001183237443342066</v>
+        <v>0.003471572376855796</v>
       </c>
       <c r="C84">
-        <v>-0.004417408375477746</v>
+        <v>-0.01888965277108183</v>
       </c>
       <c r="D84">
-        <v>0.01042760040300693</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03767474013668387</v>
+      </c>
+      <c r="E84">
+        <v>0.03659578708262713</v>
+      </c>
+      <c r="F84">
+        <v>0.03785488016278064</v>
+      </c>
+      <c r="G84">
+        <v>0.03940056318078817</v>
+      </c>
+      <c r="H84">
+        <v>0.06245279007654563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1262460115483751</v>
+        <v>-0.0562426563887019</v>
       </c>
       <c r="C85">
-        <v>-0.1563427507257152</v>
+        <v>-0.1773678818206452</v>
       </c>
       <c r="D85">
-        <v>-0.09129378074863917</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1162845654269786</v>
+      </c>
+      <c r="E85">
+        <v>-0.05247681963337073</v>
+      </c>
+      <c r="F85">
+        <v>0.04208237396756617</v>
+      </c>
+      <c r="G85">
+        <v>0.01263692985804065</v>
+      </c>
+      <c r="H85">
+        <v>0.03115756281656299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0257051928566506</v>
+        <v>-0.01586780395971198</v>
       </c>
       <c r="C86">
-        <v>-0.009381740585997051</v>
+        <v>-0.04266572338944297</v>
       </c>
       <c r="D86">
-        <v>0.08523156567455868</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08866888271348065</v>
+      </c>
+      <c r="E86">
+        <v>0.02533054448605939</v>
+      </c>
+      <c r="F86">
+        <v>0.04511492991957321</v>
+      </c>
+      <c r="G86">
+        <v>0.03566896480044995</v>
+      </c>
+      <c r="H86">
+        <v>0.04749492239667474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0224499553177727</v>
+        <v>-0.01167176818671689</v>
       </c>
       <c r="C87">
-        <v>-0.04119153552765666</v>
+        <v>-0.06903964669869592</v>
       </c>
       <c r="D87">
-        <v>0.1199074046547502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1038875226738709</v>
+      </c>
+      <c r="E87">
+        <v>0.08462530596190547</v>
+      </c>
+      <c r="F87">
+        <v>0.05026109422466499</v>
+      </c>
+      <c r="G87">
+        <v>0.07379481697836965</v>
+      </c>
+      <c r="H87">
+        <v>0.01957836272844007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04350308132225009</v>
+        <v>-0.03479679072602661</v>
       </c>
       <c r="C88">
-        <v>-0.05419563727705208</v>
+        <v>-0.07108895352636108</v>
       </c>
       <c r="D88">
-        <v>-0.001585002558921927</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006830707581203095</v>
+      </c>
+      <c r="E88">
+        <v>0.03048117754411296</v>
+      </c>
+      <c r="F88">
+        <v>0.01500509376905183</v>
+      </c>
+      <c r="G88">
+        <v>-0.01842187922256052</v>
+      </c>
+      <c r="H88">
+        <v>-0.0007165238608194852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3459899693654959</v>
+        <v>-0.3981597920604439</v>
       </c>
       <c r="C89">
-        <v>0.2904131627560286</v>
+        <v>0.1632300162286672</v>
       </c>
       <c r="D89">
-        <v>0.01157703528751566</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04969224327590761</v>
+      </c>
+      <c r="E89">
+        <v>-0.007405462774347353</v>
+      </c>
+      <c r="F89">
+        <v>0.07266669752304229</v>
+      </c>
+      <c r="G89">
+        <v>0.08086167587833011</v>
+      </c>
+      <c r="H89">
+        <v>-0.0681534589571116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2793074058551843</v>
+        <v>-0.3221230172551496</v>
       </c>
       <c r="C90">
-        <v>0.2111263399510085</v>
+        <v>0.1030786844623632</v>
       </c>
       <c r="D90">
-        <v>0.06383126772146025</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03457447563487225</v>
+      </c>
+      <c r="E90">
+        <v>0.01425824225822591</v>
+      </c>
+      <c r="F90">
+        <v>-0.01125042943351701</v>
+      </c>
+      <c r="G90">
+        <v>0.05402153111400759</v>
+      </c>
+      <c r="H90">
+        <v>0.005778030132054366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1343543864989095</v>
+        <v>-0.0648973274911028</v>
       </c>
       <c r="C91">
-        <v>-0.1987827795073194</v>
+        <v>-0.2001743509473495</v>
       </c>
       <c r="D91">
-        <v>-0.097940404614765</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08343473374523327</v>
+      </c>
+      <c r="E91">
+        <v>-0.1144291605904653</v>
+      </c>
+      <c r="F91">
+        <v>0.05110880976678824</v>
+      </c>
+      <c r="G91">
+        <v>0.02599765383070892</v>
+      </c>
+      <c r="H91">
+        <v>-0.0095514543028083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2642670075582222</v>
+        <v>-0.3358822050670563</v>
       </c>
       <c r="C92">
-        <v>0.2421250020010127</v>
+        <v>0.1457323248251084</v>
       </c>
       <c r="D92">
-        <v>-0.03332233467085727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0444981802136323</v>
+      </c>
+      <c r="E92">
+        <v>-0.04727660308444327</v>
+      </c>
+      <c r="F92">
+        <v>0.05122979807747206</v>
+      </c>
+      <c r="G92">
+        <v>-0.0008510019357724902</v>
+      </c>
+      <c r="H92">
+        <v>0.1349297085553865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2948584693120317</v>
+        <v>-0.3297021213060803</v>
       </c>
       <c r="C93">
-        <v>0.222377961309671</v>
+        <v>0.1212338501162005</v>
       </c>
       <c r="D93">
-        <v>-0.02981874530832827</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0221339664096123</v>
+      </c>
+      <c r="E93">
+        <v>-0.004797541445848472</v>
+      </c>
+      <c r="F93">
+        <v>0.0150930442168738</v>
+      </c>
+      <c r="G93">
+        <v>-0.02159141781335642</v>
+      </c>
+      <c r="H93">
+        <v>0.03556587005067877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2479374391337008</v>
+        <v>-0.1230451565967195</v>
       </c>
       <c r="C94">
-        <v>-0.2796214291517347</v>
+        <v>-0.310655690476223</v>
       </c>
       <c r="D94">
-        <v>-0.1274282957999907</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2840201264291179</v>
+      </c>
+      <c r="E94">
+        <v>-0.2122902066375605</v>
+      </c>
+      <c r="F94">
+        <v>-0.1701751535931511</v>
+      </c>
+      <c r="G94">
+        <v>0.262976803660999</v>
+      </c>
+      <c r="H94">
+        <v>0.1473509228343115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0004470684431047777</v>
+        <v>-0.01393445550977143</v>
       </c>
       <c r="C95">
-        <v>-0.0545241544068988</v>
+        <v>-0.07834281899860446</v>
       </c>
       <c r="D95">
-        <v>0.1064833214617506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1562857867844004</v>
+      </c>
+      <c r="E95">
+        <v>-0.03583024843919166</v>
+      </c>
+      <c r="F95">
+        <v>-0.008155965327968626</v>
+      </c>
+      <c r="G95">
+        <v>-0.05680265031991389</v>
+      </c>
+      <c r="H95">
+        <v>0.014486066795517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002154422942608733</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009981561635907733</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0004989717654529244</v>
+      </c>
+      <c r="E97">
+        <v>0.003744430046983287</v>
+      </c>
+      <c r="F97">
+        <v>0.0003673076099157247</v>
+      </c>
+      <c r="G97">
+        <v>-8.798183376854034e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.00519889403094214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1460320728931014</v>
+        <v>-0.134539098360807</v>
       </c>
       <c r="C98">
-        <v>-0.1008576692021287</v>
+        <v>-0.1616683428067597</v>
       </c>
       <c r="D98">
-        <v>0.1194251283925604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01789717585527527</v>
+      </c>
+      <c r="E98">
+        <v>0.15531892690761</v>
+      </c>
+      <c r="F98">
+        <v>-0.2557884875562014</v>
+      </c>
+      <c r="G98">
+        <v>-0.281080866343448</v>
+      </c>
+      <c r="H98">
+        <v>-0.1783461780217467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0003533256933319581</v>
+        <v>-0.001458141325333676</v>
       </c>
       <c r="C101">
-        <v>-0.02071500076235937</v>
+        <v>-0.04082805625918378</v>
       </c>
       <c r="D101">
-        <v>0.06748005501083153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.06260118042360838</v>
+      </c>
+      <c r="E101">
+        <v>0.1213197406814865</v>
+      </c>
+      <c r="F101">
+        <v>0.04720912768066277</v>
+      </c>
+      <c r="G101">
+        <v>0.009022158688693093</v>
+      </c>
+      <c r="H101">
+        <v>-0.05213117878814899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08349300392033662</v>
+        <v>-0.01971233320298676</v>
       </c>
       <c r="C102">
-        <v>-0.1597277032688595</v>
+        <v>-0.1305947149912255</v>
       </c>
       <c r="D102">
-        <v>0.002001830966044072</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07297064701027173</v>
+      </c>
+      <c r="E102">
+        <v>-0.07587272678722096</v>
+      </c>
+      <c r="F102">
+        <v>-0.07158881254445638</v>
+      </c>
+      <c r="G102">
+        <v>0.0405752929191916</v>
+      </c>
+      <c r="H102">
+        <v>-0.007059262390207872</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
